--- a/Financial Analysis/EQUITIES/CVX.xlsx
+++ b/Financial Analysis/EQUITIES/CVX.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/zxt18_ic_ac_uk/Documents/Financial Analysis/EQUITIES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F680219-F0EA-4BE0-ABDF-0896560934F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9F680219-F0EA-4BE0-ABDF-0896560934F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC5FD38-E26D-4FFC-9F5A-9F451B9F4EC5}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,8 +560,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -618,21 +619,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9379782864450147871</stp>
-        <tr r="A8" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,14 +946,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +969,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +977,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -999,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=145")</f>
         <v>44592</v>
@@ -1030,7 +1016,7 @@
         <v>300837391</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -1041,7 +1027,7 @@
         <v>221151582</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>44530</v>
       </c>
@@ -1052,7 +1038,7 @@
         <v>225316511</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>44498</v>
       </c>
@@ -1063,7 +1049,7 @@
         <v>211814421</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>44469</v>
       </c>
@@ -1074,7 +1060,7 @@
         <v>250500704</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>44439</v>
       </c>
@@ -1085,7 +1071,7 @@
         <v>213433632</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>44407</v>
       </c>
@@ -1096,7 +1082,7 @@
         <v>205696876</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>44377</v>
       </c>
@@ -1107,7 +1093,7 @@
         <v>224064101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>44344</v>
       </c>
@@ -1118,7 +1104,7 @@
         <v>209441319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>44316</v>
       </c>
@@ -1129,7 +1115,7 @@
         <v>175177045</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -1140,7 +1126,7 @@
         <v>304181340</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>44253</v>
       </c>
@@ -1151,7 +1137,7 @@
         <v>203358690</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>44225</v>
       </c>
@@ -1162,7 +1148,7 @@
         <v>197555671</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>44196</v>
       </c>
@@ -1173,7 +1159,7 @@
         <v>224802681</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>44165</v>
       </c>
@@ -1184,7 +1170,7 @@
         <v>241663743</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>44134</v>
       </c>
@@ -1195,7 +1181,7 @@
         <v>251171694</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -1206,7 +1192,7 @@
         <v>256445094</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>44074</v>
       </c>
@@ -1217,7 +1203,7 @@
         <v>173509672</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>44043</v>
       </c>
@@ -1228,7 +1214,7 @@
         <v>181480958</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>44012</v>
       </c>
@@ -1239,7 +1225,7 @@
         <v>206225900</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43980</v>
       </c>
@@ -1250,7 +1236,7 @@
         <v>206928484</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43951</v>
       </c>
@@ -1261,7 +1247,7 @@
         <v>302952606</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
@@ -1272,7 +1258,7 @@
         <v>475948173</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43889</v>
       </c>
@@ -1283,7 +1269,7 @@
         <v>158467286</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43861</v>
       </c>
@@ -1294,7 +1280,7 @@
         <v>154419454</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43830</v>
       </c>
@@ -1305,7 +1291,7 @@
         <v>120908467</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43798</v>
       </c>
@@ -1316,7 +1302,7 @@
         <v>119891807</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43769</v>
       </c>
@@ -1327,7 +1313,7 @@
         <v>113051931</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43738</v>
       </c>
@@ -1338,7 +1324,7 @@
         <v>124068926</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43707</v>
       </c>
@@ -1349,7 +1335,7 @@
         <v>132466837</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43677</v>
       </c>
@@ -1360,7 +1346,7 @@
         <v>99528084</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43644</v>
       </c>
@@ -1371,7 +1357,7 @@
         <v>112772229</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43616</v>
       </c>
@@ -1382,7 +1368,7 @@
         <v>174979810</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43585</v>
       </c>
@@ -1393,7 +1379,7 @@
         <v>221265870</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43553</v>
       </c>
@@ -1404,7 +1390,7 @@
         <v>126231302</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43524</v>
       </c>
@@ -1415,7 +1401,7 @@
         <v>113779732</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43496</v>
       </c>
@@ -1426,7 +1412,7 @@
         <v>139157464</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -1437,7 +1423,7 @@
         <v>169675118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43434</v>
       </c>
@@ -1448,7 +1434,7 @@
         <v>151564884</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43404</v>
       </c>
@@ -1459,7 +1445,7 @@
         <v>152334791</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43371</v>
       </c>
@@ -1470,7 +1456,7 @@
         <v>112659507</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43343</v>
       </c>
@@ -1481,7 +1467,7 @@
         <v>113556949</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43312</v>
       </c>
@@ -1492,7 +1478,7 @@
         <v>105548364</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43280</v>
       </c>
@@ -1503,7 +1489,7 @@
         <v>136394513</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43251</v>
       </c>
@@ -1514,7 +1500,7 @@
         <v>147855116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43220</v>
       </c>
@@ -1525,7 +1511,7 @@
         <v>143113036</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43188</v>
       </c>
@@ -1536,7 +1522,7 @@
         <v>144392851</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43159</v>
       </c>
@@ -1547,7 +1533,7 @@
         <v>170301644</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43131</v>
       </c>
@@ -1558,7 +1544,7 @@
         <v>130294006</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43098</v>
       </c>
@@ -1569,7 +1555,7 @@
         <v>105262175</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43069</v>
       </c>
@@ -1580,7 +1566,7 @@
         <v>101837448</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43039</v>
       </c>
@@ -1591,7 +1577,7 @@
         <v>113304877</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>43007</v>
       </c>
@@ -1602,7 +1588,7 @@
         <v>109671387</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>42978</v>
       </c>
@@ -1613,7 +1599,7 @@
         <v>109283214</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>42947</v>
       </c>
@@ -1624,7 +1610,7 @@
         <v>105290041</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>42916</v>
       </c>
@@ -1635,7 +1621,7 @@
         <v>126624810</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>42886</v>
       </c>
@@ -1646,7 +1632,7 @@
         <v>118563790</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>42853</v>
       </c>
@@ -1657,7 +1643,7 @@
         <v>101522586</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>42825</v>
       </c>
@@ -1668,7 +1654,7 @@
         <v>164746761</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>42794</v>
       </c>
@@ -1679,7 +1665,7 @@
         <v>123282328</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>42766</v>
       </c>
@@ -1690,7 +1676,7 @@
         <v>123832341</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>42734</v>
       </c>
@@ -1701,7 +1687,7 @@
         <v>134507515</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>42704</v>
       </c>
@@ -1712,7 +1698,7 @@
         <v>169980618</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>42674</v>
       </c>
@@ -1723,7 +1709,7 @@
         <v>138659462</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>42643</v>
       </c>
@@ -1734,7 +1720,7 @@
         <v>151321934</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>42613</v>
       </c>
@@ -1745,7 +1731,7 @@
         <v>132676907</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>42580</v>
       </c>
@@ -1756,7 +1742,7 @@
         <v>134616888</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>42551</v>
       </c>
@@ -1767,7 +1753,7 @@
         <v>152206922</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>42521</v>
       </c>
@@ -1778,7 +1764,7 @@
         <v>130880061</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>42489</v>
       </c>
@@ -1789,7 +1775,7 @@
         <v>155689960</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>42460</v>
       </c>
@@ -1800,7 +1786,7 @@
         <v>214768943</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>42429</v>
       </c>
@@ -1811,7 +1797,7 @@
         <v>234915063</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>42398</v>
       </c>
@@ -1822,7 +1808,7 @@
         <v>280097927</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>42369</v>
       </c>
@@ -1833,7 +1819,7 @@
         <v>261449561</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>42338</v>
       </c>
@@ -1844,7 +1830,7 @@
         <v>176699307</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>42307</v>
       </c>
@@ -1855,7 +1841,7 @@
         <v>224784494</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>42277</v>
       </c>
@@ -1866,7 +1852,7 @@
         <v>246188944</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>42247</v>
       </c>
@@ -1877,7 +1863,7 @@
         <v>287933948</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>42216</v>
       </c>
@@ -1888,7 +1874,7 @@
         <v>184583617</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>42185</v>
       </c>
@@ -1899,7 +1885,7 @@
         <v>158810147</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>42153</v>
       </c>
@@ -1910,7 +1896,7 @@
         <v>132871511</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>42124</v>
       </c>
@@ -1921,7 +1907,7 @@
         <v>130040083</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>42094</v>
       </c>
@@ -1932,7 +1918,7 @@
         <v>170304567</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>42062</v>
       </c>
@@ -1943,7 +1929,7 @@
         <v>148268031</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -1954,7 +1940,7 @@
         <v>209720368</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>42004</v>
       </c>
@@ -1965,7 +1951,7 @@
         <v>221204464</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>41971</v>
       </c>
@@ -1976,7 +1962,7 @@
         <v>130614528</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>41943</v>
       </c>
@@ -1987,7 +1973,7 @@
         <v>197292781</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>41912</v>
       </c>
@@ -1998,7 +1984,7 @@
         <v>130254256</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>41880</v>
       </c>
@@ -2009,7 +1995,7 @@
         <v>91389360</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>41851</v>
       </c>
@@ -2020,7 +2006,7 @@
         <v>101776753</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>41820</v>
       </c>
@@ -2031,7 +2017,7 @@
         <v>132639426</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>41789</v>
       </c>
@@ -2042,7 +2028,7 @@
         <v>103891537</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>41759</v>
       </c>
@@ -2053,7 +2039,7 @@
         <v>130407355</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>41729</v>
       </c>
@@ -2064,7 +2050,7 @@
         <v>131078512</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>41698</v>
       </c>
@@ -2075,7 +2061,7 @@
         <v>144135671</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>41670</v>
       </c>
@@ -2086,7 +2072,7 @@
         <v>131439474</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>41639</v>
       </c>
@@ -2097,7 +2083,7 @@
         <v>116222415</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>41607</v>
       </c>
@@ -2108,7 +2094,7 @@
         <v>120696213</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>41578</v>
       </c>
@@ -2119,7 +2105,7 @@
         <v>141358197</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>41547</v>
       </c>
@@ -2130,7 +2116,7 @@
         <v>102738240</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>41516</v>
       </c>
@@ -2141,7 +2127,7 @@
         <v>114129543</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>41486</v>
       </c>
@@ -2152,7 +2138,7 @@
         <v>104641372</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>41453</v>
       </c>
@@ -2163,7 +2149,7 @@
         <v>123714710</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>41425</v>
       </c>
@@ -2174,7 +2160,7 @@
         <v>155430039</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>41394</v>
       </c>
@@ -2185,7 +2171,7 @@
         <v>132685365</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>41361</v>
       </c>
@@ -2196,7 +2182,7 @@
         <v>114552548</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>41333</v>
       </c>
@@ -2207,7 +2193,7 @@
         <v>100831998</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>41305</v>
       </c>
@@ -2218,7 +2204,7 @@
         <v>119452974</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>41274</v>
       </c>
@@ -2229,7 +2215,7 @@
         <v>125439905</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>41243</v>
       </c>
@@ -2240,7 +2226,7 @@
         <v>128427872</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>41213</v>
       </c>
@@ -2251,7 +2237,7 @@
         <v>129458761</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>41180</v>
       </c>
@@ -2262,7 +2248,7 @@
         <v>117913282</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>41152</v>
       </c>
@@ -2273,7 +2259,7 @@
         <v>113007164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>41121</v>
       </c>
@@ -2284,7 +2270,7 @@
         <v>134289398</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>41089</v>
       </c>
@@ -2295,7 +2281,7 @@
         <v>157286547</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>41060</v>
       </c>
@@ -2306,7 +2292,7 @@
         <v>162179275</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>41029</v>
       </c>
@@ -2317,7 +2303,7 @@
         <v>119317455</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>40998</v>
       </c>
@@ -2328,7 +2314,7 @@
         <v>146992731</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>40968</v>
       </c>
@@ -2339,7 +2325,7 @@
         <v>130995510</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>40939</v>
       </c>
@@ -2350,7 +2336,7 @@
         <v>157233565</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>40907</v>
       </c>
@@ -2361,7 +2347,7 @@
         <v>159969564</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>40877</v>
       </c>
@@ -2372,7 +2358,7 @@
         <v>224629866</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>40847</v>
       </c>
@@ -2383,7 +2369,7 @@
         <v>207918849</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>40816</v>
       </c>
@@ -2394,7 +2380,7 @@
         <v>233116125</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>40786</v>
       </c>
@@ -2405,7 +2391,7 @@
         <v>314193396</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>40753</v>
       </c>
@@ -2416,7 +2402,7 @@
         <v>142458807</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>40724</v>
       </c>
@@ -2427,7 +2413,7 @@
         <v>175670858</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>40694</v>
       </c>
@@ -2438,7 +2424,7 @@
         <v>170828970</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>40662</v>
       </c>
@@ -2449,7 +2435,7 @@
         <v>132890669</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>40633</v>
       </c>
@@ -2460,7 +2446,7 @@
         <v>206776745</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>40602</v>
       </c>
@@ -2471,7 +2457,7 @@
         <v>181453556</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>40574</v>
       </c>
@@ -2482,7 +2468,7 @@
         <v>150604151</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>40543</v>
       </c>
@@ -2493,7 +2479,7 @@
         <v>157974763</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>40512</v>
       </c>
@@ -2504,7 +2490,7 @@
         <v>214021093</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>40480</v>
       </c>
@@ -2515,7 +2501,7 @@
         <v>177764651</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>40451</v>
       </c>
@@ -2526,7 +2512,7 @@
         <v>168350081</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>40421</v>
       </c>
@@ -2537,7 +2523,7 @@
         <v>198002848</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>40389</v>
       </c>
@@ -2548,7 +2534,7 @@
         <v>233159460</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>40359</v>
       </c>
@@ -2559,7 +2545,7 @@
         <v>295893493</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>40326</v>
       </c>
@@ -2570,7 +2556,7 @@
         <v>298327624</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>40298</v>
       </c>
@@ -2581,7 +2567,7 @@
         <v>207135531</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>40268</v>
       </c>
@@ -2592,7 +2578,7 @@
         <v>215158304</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>40235</v>
       </c>
@@ -2603,7 +2589,7 @@
         <v>229419082</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>40207</v>
       </c>
@@ -2837,6 +2823,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2845,52 +2837,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{966C04F8-4C8C-4DD4-97C2-D764C0830963}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{966C04F8-4C8C-4DD4-97C2-D764C0830963}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C384BA-89A9-4520-95F3-ED8D3667FB40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5637E0-DE2A-49AD-B0A8-1A31D4EDDDCA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5637E0-DE2A-49AD-B0A8-1A31D4EDDDCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C384BA-89A9-4520-95F3-ED8D3667FB40}"/>
 </file>